--- a/automationqsp/data/TestData.xlsx
+++ b/automationqsp/data/TestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\git\repository27\automationqsp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CFE6AE-5F2B-48CC-AF4C-EA0C4CAB8D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6BAC35-E74E-49C1-9DAE-29F84C0F4DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="validcreds" sheetId="1" r:id="rId1"/>
     <sheet name="invalidcreds" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>username</t>
   </si>
@@ -65,12 +65,16 @@
   </si>
   <si>
     <t>manager123</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,19 +402,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="33.5546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="33.5546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,12 +422,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -434,103 +441,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A3A78-54C9-4946-A996-55310EEF66EF}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.5546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>